--- a/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02303009033203125</v>
+        <v>0.01459712982177734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1191592693328857</v>
+        <v>0.02440824508666992</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009120845794677734</v>
+        <v>0.006189537048339844</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02448949813842773</v>
+        <v>0.01681041717529297</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005013608932495117</v>
+        <v>0.002393722534179688</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02018156051635742</v>
+        <v>0.0571098804473877</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0190530776977539</v>
+        <v>0.01439552307128906</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03296966552734375</v>
+        <v>0.02533020973205567</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01869783401489258</v>
+        <v>0.01119651794433594</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03232426643371582</v>
+        <v>0.02079572677612305</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005429220199584961</v>
+        <v>0.003200387954711914</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02217044830322266</v>
+        <v>0.01460742950439453</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09599566459655762</v>
+        <v>0.07539291381835937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03382120132446289</v>
+        <v>0.02686405181884766</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0198000431060791</v>
+        <v>0.01516590118408203</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01340012550354004</v>
+        <v>0.0101994514465332</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008806991577148437</v>
+        <v>0.01186113357543945</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009192991256713866</v>
+        <v>0.01146078109741211</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09443297386169433</v>
+        <v>0.1516443252563477</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03220100402832031</v>
+        <v>0.04450893402099609</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06714754104614258</v>
+        <v>0.1031134128570557</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0248115062713623</v>
+        <v>0.03127560615539551</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01776490211486816</v>
+        <v>0.03315143585205078</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01257829666137695</v>
+        <v>0.01675300598144531</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04199857711791992</v>
+        <v>0.04499831199645996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02363395690917969</v>
+        <v>0.02724075317382812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02539939880371094</v>
+        <v>0.02290120124816895</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02133054733276367</v>
+        <v>0.01682343482971192</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1086140155792236</v>
+        <v>0.0870091438293457</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01034393310546875</v>
+        <v>0.0116429328918457</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02860150337219238</v>
+        <v>0.03433222770690918</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01986784934997559</v>
+        <v>0.02600207328796387</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03861227035522461</v>
+        <v>0.03202948570251465</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0258143424987793</v>
+        <v>0.02023811340332031</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04980301856994629</v>
+        <v>0.05199732780456543</v>
       </c>
       <c r="M4" t="n">
-        <v>0.009196949005126954</v>
+        <v>0.01557474136352539</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03245291709899902</v>
+        <v>0.03359456062316894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03380041122436524</v>
+        <v>0.02798910140991211</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0318047046661377</v>
+        <v>0.02648453712463379</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03193531036376953</v>
+        <v>0.0227330207824707</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03112940788269043</v>
+        <v>0.02430157661437988</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03630070686340332</v>
+        <v>0.02726325988769531</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0175015926361084</v>
+        <v>0.02553739547729492</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02517428398132324</v>
+        <v>0.02647767066955566</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4511045455932617</v>
+        <v>0.8559419631958007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08086462020874023</v>
+        <v>0.1351036548614502</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3797602653503418</v>
+        <v>0.6783699989318848</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07952671051025391</v>
+        <v>0.1171733379364014</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1902658462524414</v>
+        <v>0.1928281784057617</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02441015243530274</v>
+        <v>0.06292157173156739</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4524212837219238</v>
+        <v>1.036152076721191</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08624143600463867</v>
+        <v>0.1854721069335938</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4081192016601562</v>
+        <v>0.6953098773956299</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07766571044921874</v>
+        <v>0.1617080688476563</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1501978397369385</v>
+        <v>0.2982239246368408</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02849717140197754</v>
+        <v>0.06996550559997558</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01459712982177734</v>
+        <v>0.03449230194091797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02440824508666992</v>
+        <v>0.06408958435058594</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006189537048339844</v>
+        <v>0.008924674987792969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01681041717529297</v>
+        <v>0.04052743911743164</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002393722534179688</v>
+        <v>0.00169215202331543</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0571098804473877</v>
+        <v>0.1265068054199219</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01439552307128906</v>
+        <v>0.0276667594909668</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02533020973205567</v>
+        <v>0.04682331085205078</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01119651794433594</v>
+        <v>0.01683006286621094</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02079572677612305</v>
+        <v>0.03265647888183594</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003200387954711914</v>
+        <v>0.008340692520141602</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01460742950439453</v>
+        <v>0.05038094520568848</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07539291381835937</v>
+        <v>0.1777416706085205</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02686405181884766</v>
+        <v>0.06609849929809571</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01516590118408203</v>
+        <v>0.04581508636474609</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0101994514465332</v>
+        <v>0.03242983818054199</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01186113357543945</v>
+        <v>0.02811088562011719</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01146078109741211</v>
+        <v>0.02763156890869141</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1516443252563477</v>
+        <v>0.2230873107910156</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04450893402099609</v>
+        <v>0.0617856502532959</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1031134128570557</v>
+        <v>0.1572887897491455</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03127560615539551</v>
+        <v>0.04955000877380371</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03315143585205078</v>
+        <v>0.05497927665710449</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01675300598144531</v>
+        <v>0.02655735015869141</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04499831199645996</v>
+        <v>0.06199078559875489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02724075317382812</v>
+        <v>0.03156571388244629</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02290120124816895</v>
+        <v>0.02436656951904297</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01682343482971192</v>
+        <v>0.01900358200073242</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0870091438293457</v>
+        <v>0.1371804714202881</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0116429328918457</v>
+        <v>0.01466960906982422</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03433222770690918</v>
+        <v>0.04345941543579102</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02600207328796387</v>
+        <v>0.02898030281066894</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03202948570251465</v>
+        <v>0.03531708717346192</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02023811340332031</v>
+        <v>0.02787270545959473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05199732780456543</v>
+        <v>0.08633460998535156</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01557474136352539</v>
+        <v>0.0222536563873291</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03359456062316894</v>
+        <v>0.03932452201843262</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02798910140991211</v>
+        <v>0.03577046394348145</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02648453712463379</v>
+        <v>0.03139300346374511</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0227330207824707</v>
+        <v>0.02863397598266602</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02430157661437988</v>
+        <v>0.0320746898651123</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02726325988769531</v>
+        <v>0.03615107536315918</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02553739547729492</v>
+        <v>0.02557921409606934</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02647767066955566</v>
+        <v>0.03418269157409668</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8559419631958007</v>
+        <v>0.4865874767303467</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1351036548614502</v>
+        <v>0.1022066593170166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6783699989318848</v>
+        <v>0.4001742839813233</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1171733379364014</v>
+        <v>0.09559688568115235</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1928281784057617</v>
+        <v>0.09910163879394532</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06292157173156739</v>
+        <v>0.02847757339477539</v>
       </c>
       <c r="H6" t="n">
-        <v>1.036152076721191</v>
+        <v>0.5101908206939697</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1854721069335938</v>
+        <v>0.08968691825866699</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6953098773956299</v>
+        <v>0.3879057884216309</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1617080688476563</v>
+        <v>0.06888542175292969</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2982239246368408</v>
+        <v>0.1584257125854492</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06996550559997558</v>
+        <v>0.0247398853302002</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03449230194091797</v>
+        <v>0.01814532279968262</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06408958435058594</v>
+        <v>0.03399190902709961</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008924674987792969</v>
+        <v>0.008392953872680664</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04052743911743164</v>
+        <v>0.01980352401733398</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00169215202331543</v>
+        <v>0.003587245941162109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1265068054199219</v>
+        <v>0.06248388290405273</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0276667594909668</v>
+        <v>0.01741399765014649</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04682331085205078</v>
+        <v>0.02348895072937012</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01683006286621094</v>
+        <v>0.01260161399841309</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03265647888183594</v>
+        <v>0.02331080436706543</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008340692520141602</v>
+        <v>0.005994272232055664</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05038094520568848</v>
+        <v>0.02220544815063476</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1777416706085205</v>
+        <v>0.06900496482849121</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06609849929809571</v>
+        <v>0.02339510917663574</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04581508636474609</v>
+        <v>0.01394104957580566</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03242983818054199</v>
+        <v>0.009999418258666992</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02811088562011719</v>
+        <v>0.006599760055541993</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02763156890869141</v>
+        <v>0.007600641250610352</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2230873107910156</v>
+        <v>0.1036828994750977</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0617856502532959</v>
+        <v>0.03320541381835938</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1572887897491455</v>
+        <v>0.08026003837585449</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04955000877380371</v>
+        <v>0.02751049995422363</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05497927665710449</v>
+        <v>0.02319622039794922</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02655735015869141</v>
+        <v>0.01260318756103516</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06199078559875489</v>
+        <v>0.02921066284179687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03156571388244629</v>
+        <v>0.01479673385620117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02436656951904297</v>
+        <v>0.01159276962280273</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01900358200073242</v>
+        <v>0.009012937545776367</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1371804714202881</v>
+        <v>0.06995935440063476</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01466960906982422</v>
+        <v>0.008006906509399414</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04345941543579102</v>
+        <v>0.01999883651733398</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02898030281066894</v>
+        <v>0.01385564804077149</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03531708717346192</v>
+        <v>0.01618986129760742</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02787270545959473</v>
+        <v>0.0126190185546875</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08633460998535156</v>
+        <v>0.03120908737182617</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0222536563873291</v>
+        <v>0.008501768112182617</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03932452201843262</v>
+        <v>0.01721506118774414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03577046394348145</v>
+        <v>0.01379256248474121</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03139300346374511</v>
+        <v>0.01432771682739258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02863397598266602</v>
+        <v>0.01284389495849609</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0320746898651123</v>
+        <v>0.0125917911529541</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03615107536315918</v>
+        <v>0.01320748329162598</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02557921409606934</v>
+        <v>0.009984683990478516</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03418269157409668</v>
+        <v>0.0116426944732666</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4865874767303467</v>
+        <v>0.3273634910583496</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1022066593170166</v>
+        <v>0.05518450736999512</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4001742839813233</v>
+        <v>0.3017604827880859</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09559688568115235</v>
+        <v>0.05480003356933594</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09910163879394532</v>
+        <v>0.1248418807983398</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02847757339477539</v>
+        <v>0.01859469413757324</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5101908206939697</v>
+        <v>0.4201132297515869</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08968691825866699</v>
+        <v>0.06013646125793457</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3879057884216309</v>
+        <v>0.2652891159057617</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06888542175292969</v>
+        <v>0.04642405509948731</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1584257125854492</v>
+        <v>0.1194005489349365</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0247398853302002</v>
+        <v>0.01959366798400879</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01814532279968262</v>
+        <v>0.02400603294372559</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03399190902709961</v>
+        <v>0.04416565895080567</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008392953872680664</v>
+        <v>0.01125965118408203</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01980352401733398</v>
+        <v>0.0294978141784668</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003587245941162109</v>
+        <v>0.003601789474487305</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06248388290405273</v>
+        <v>0.1209440231323242</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01741399765014649</v>
+        <v>0.02228279113769531</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02348895072937012</v>
+        <v>0.03478732109069824</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01260161399841309</v>
+        <v>0.01720924377441406</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02331080436706543</v>
+        <v>0.03222970962524414</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005994272232055664</v>
+        <v>0.005752182006835938</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02220544815063476</v>
+        <v>0.02220573425292969</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06900496482849121</v>
+        <v>0.09969134330749511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02339510917663574</v>
+        <v>0.03379001617431641</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01394104957580566</v>
+        <v>0.01731934547424317</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009999418258666992</v>
+        <v>0.01303629875183105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006599760055541993</v>
+        <v>0.008330821990966797</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007600641250610352</v>
+        <v>0.009400558471679688</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1036828994750977</v>
+        <v>0.1330410957336426</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03320541381835938</v>
+        <v>0.03856043815612793</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08026003837585449</v>
+        <v>0.08866133689880371</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02751049995422363</v>
+        <v>0.0279782772064209</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02319622039794922</v>
+        <v>0.02636990547180176</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01260318756103516</v>
+        <v>0.01359882354736328</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02921066284179687</v>
+        <v>0.04292778968811035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01479673385620117</v>
+        <v>0.02203035354614258</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01159276962280273</v>
+        <v>0.01440262794494629</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009012937545776367</v>
+        <v>0.01122441291809082</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06995935440063476</v>
+        <v>0.08300724029541015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008006906509399414</v>
+        <v>0.01001482009887695</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01999883651733398</v>
+        <v>0.0386385440826416</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01385564804077149</v>
+        <v>0.02812857627868652</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01618986129760742</v>
+        <v>0.03425660133361817</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0126190185546875</v>
+        <v>0.02658829689025879</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03120908737182617</v>
+        <v>0.05747976303100586</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008501768112182617</v>
+        <v>0.01456212997436523</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01721506118774414</v>
+        <v>0.03181700706481934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01379256248474121</v>
+        <v>0.02595906257629394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01432771682739258</v>
+        <v>0.02754673957824707</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01284389495849609</v>
+        <v>0.02444701194763184</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0125917911529541</v>
+        <v>0.03376898765563965</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01320748329162598</v>
+        <v>0.03006772994995117</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009984683990478516</v>
+        <v>0.02469053268432617</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0116426944732666</v>
+        <v>0.02999815940856933</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3273634910583496</v>
+        <v>0.4653768062591553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05518450736999512</v>
+        <v>0.09450340270996094</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3017604827880859</v>
+        <v>0.543682336807251</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05480003356933594</v>
+        <v>0.1094675064086914</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1248418807983398</v>
+        <v>0.200335693359375</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01859469413757324</v>
+        <v>0.03403530120849609</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4201132297515869</v>
+        <v>1.090454530715942</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06013646125793457</v>
+        <v>0.21069016456604</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2652891159057617</v>
+        <v>0.7157362937927246</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04642405509948731</v>
+        <v>0.1745734214782715</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1194005489349365</v>
+        <v>0.3012603282928467</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01959366798400879</v>
+        <v>0.07853894233703614</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02400603294372559</v>
+        <v>0.03373274803161621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04416565895080567</v>
+        <v>0.0547877311706543</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01125965118408203</v>
+        <v>0.01627206802368164</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0294978141784668</v>
+        <v>0.03760514259338379</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003601789474487305</v>
+        <v>0.009783744812011719</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1209440231323242</v>
+        <v>0.09313402175903321</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02228279113769531</v>
+        <v>0.02861528396606445</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03478732109069824</v>
+        <v>0.02603325843811035</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01720924377441406</v>
+        <v>0.01604399681091308</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03222970962524414</v>
+        <v>0.03383350372314453</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005752182006835938</v>
+        <v>0.01280550956726074</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02220573425292969</v>
+        <v>0.01245169639587402</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09969134330749511</v>
+        <v>0.1071926116943359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03379001617431641</v>
+        <v>0.03153362274169922</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01731934547424317</v>
+        <v>0.02485260963439941</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01303629875183105</v>
+        <v>0.01651763916015625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008330821990966797</v>
+        <v>0.009376716613769532</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009400558471679688</v>
+        <v>0.00624995231628418</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1330410957336426</v>
+        <v>0.118006706237793</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03856043815612793</v>
+        <v>0.03161211013793945</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08866133689880371</v>
+        <v>0.09223442077636719</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0279782772064209</v>
+        <v>0.01903419494628906</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02636990547180176</v>
+        <v>0.02658963203430176</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01359882354736328</v>
+        <v>0.009403800964355469</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04292778968811035</v>
+        <v>0.0500887393951416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02203035354614258</v>
+        <v>0.02226743698120117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01440262794494629</v>
+        <v>0.02217254638671875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01122441291809082</v>
+        <v>0.01387763023376465</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08300724029541015</v>
+        <v>0.08637099266052246</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01001482009887695</v>
+        <v>0.01253409385681152</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0386385440826416</v>
+        <v>0.04141535758972168</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02812857627868652</v>
+        <v>0.01831150054931641</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03425660133361817</v>
+        <v>0.03747506141662597</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02658829689025879</v>
+        <v>0.02995867729187012</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05747976303100586</v>
+        <v>0.04542369842529297</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01456212997436523</v>
+        <v>0.01296052932739258</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03181700706481934</v>
+        <v>0.03462648391723633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02595906257629394</v>
+        <v>0.0198493480682373</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02754673957824707</v>
+        <v>0.03896775245666504</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02444701194763184</v>
+        <v>0.02578983306884765</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03376898765563965</v>
+        <v>0.03062443733215332</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03006772994995117</v>
+        <v>0.02084321975708008</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02469053268432617</v>
+        <v>0.02975382804870606</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02999815940856933</v>
+        <v>0.01952199935913086</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4653768062591553</v>
+        <v>0.5164658546447753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09450340270996094</v>
+        <v>0.1165169715881348</v>
       </c>
       <c r="D6" t="n">
-        <v>0.543682336807251</v>
+        <v>0.3586853981018067</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1094675064086914</v>
+        <v>0.08162155151367187</v>
       </c>
       <c r="F6" t="n">
-        <v>0.200335693359375</v>
+        <v>0.2491561412811279</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03403530120849609</v>
+        <v>0.04803528785705567</v>
       </c>
       <c r="H6" t="n">
-        <v>1.090454530715942</v>
+        <v>0.7166639328002929</v>
       </c>
       <c r="I6" t="n">
-        <v>0.21069016456604</v>
+        <v>0.1112798690795898</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7157362937927246</v>
+        <v>0.511562442779541</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1745734214782715</v>
+        <v>0.08647007942199707</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3012603282928467</v>
+        <v>0.2003881454467774</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07853894233703614</v>
+        <v>0.03192729949951172</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03373274803161621</v>
+        <v>0.01821980476379394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0547877311706543</v>
+        <v>0.03011903762817383</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01627206802368164</v>
+        <v>0.006804370880126953</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03760514259338379</v>
+        <v>0.01992926597595215</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009783744812011719</v>
+        <v>0.003295183181762695</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09313402175903321</v>
+        <v>0.06986837387084961</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02861528396606445</v>
+        <v>0.02082295417785645</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02603325843811035</v>
+        <v>0.02711653709411621</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01604399681091308</v>
+        <v>0.01193118095397949</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03383350372314453</v>
+        <v>0.02800393104553223</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01280550956726074</v>
+        <v>0.003326177597045898</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01245169639587402</v>
+        <v>0.02225141525268555</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1071926116943359</v>
+        <v>0.08473114967346192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03153362274169922</v>
+        <v>0.02169523239135742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02485260963439941</v>
+        <v>0.01310839653015137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01651763916015625</v>
+        <v>0.008887815475463866</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009376716613769532</v>
+        <v>0.006555986404418945</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00624995231628418</v>
+        <v>0.006721735000610352</v>
       </c>
       <c r="H3" t="n">
-        <v>0.118006706237793</v>
+        <v>0.09351215362548829</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03161211013793945</v>
+        <v>0.02199573516845703</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09223442077636719</v>
+        <v>0.06733946800231934</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01903419494628906</v>
+        <v>0.02134394645690918</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02658963203430176</v>
+        <v>0.02733683586120605</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009403800964355469</v>
+        <v>0.01155438423156738</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0500887393951416</v>
+        <v>0.03235025405883789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02226743698120117</v>
+        <v>0.008517026901245117</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02217254638671875</v>
+        <v>0.01539134979248047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01387763023376465</v>
+        <v>0.00366363525390625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08637099266052246</v>
+        <v>0.06216011047363281</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01253409385681152</v>
+        <v>0.009285259246826171</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04141535758972168</v>
+        <v>0.02718038558959961</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01831150054931641</v>
+        <v>0.01134395599365234</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03747506141662597</v>
+        <v>0.01680665016174316</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02995867729187012</v>
+        <v>0.0165278434753418</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04542369842529297</v>
+        <v>0.03703403472900391</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01296052932739258</v>
+        <v>0.006600427627563477</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03462648391723633</v>
+        <v>0.0191474437713623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0198493480682373</v>
+        <v>0.01380510330200195</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03896775245666504</v>
+        <v>0.0155123233795166</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02578983306884765</v>
+        <v>0.01106185913085938</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03062443733215332</v>
+        <v>0.01542587280273438</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02084321975708008</v>
+        <v>0.01747221946716309</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02975382804870606</v>
+        <v>0.013922119140625</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01952199935913086</v>
+        <v>0.009642696380615235</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5164658546447753</v>
+        <v>0.3828513622283936</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1165169715881348</v>
+        <v>0.06287045478820801</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3586853981018067</v>
+        <v>0.2550122261047363</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08162155151367187</v>
+        <v>0.04659237861633301</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2491561412811279</v>
+        <v>0.1097476005554199</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04803528785705567</v>
+        <v>0.01874260902404785</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7166639328002929</v>
+        <v>0.3801012992858886</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1112798690795898</v>
+        <v>0.0534945011138916</v>
       </c>
       <c r="J6" t="n">
-        <v>0.511562442779541</v>
+        <v>0.2442757129669189</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08647007942199707</v>
+        <v>0.04940900802612305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2003881454467774</v>
+        <v>0.1176186561584473</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03192729949951172</v>
+        <v>0.01742396354675293</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01821980476379394</v>
+        <v>0.01579561233520508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03011903762817383</v>
+        <v>0.02395977973937988</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006804370880126953</v>
+        <v>0.009798669815063476</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01992926597595215</v>
+        <v>0.01614923477172852</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003295183181762695</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06986837387084961</v>
+        <v>0.06241722106933593</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02082295417785645</v>
+        <v>0.01784634590148926</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02711653709411621</v>
+        <v>0.0213188648223877</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01193118095397949</v>
+        <v>0.006253767013549805</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02800393104553223</v>
+        <v>0.02848620414733887</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003326177597045898</v>
+        <v>0.004152059555053711</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02225141525268555</v>
+        <v>0.0256159782409668</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08473114967346192</v>
+        <v>0.0847860336303711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02169523239135742</v>
+        <v>0.0280029296875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01310839653015137</v>
+        <v>0.01257224082946777</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008887815475463866</v>
+        <v>0.0115849494934082</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006555986404418945</v>
+        <v>0.003669643402099609</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006721735000610352</v>
+        <v>0.01166410446166992</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09351215362548829</v>
+        <v>0.09928703308105469</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02199573516845703</v>
+        <v>0.03016805648803711</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06733946800231934</v>
+        <v>0.06685857772827149</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02134394645690918</v>
+        <v>0.02468986511230469</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02733683586120605</v>
+        <v>0.02614903450012207</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01155438423156738</v>
+        <v>0.005408763885498047</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03235025405883789</v>
+        <v>0.02529869079589844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008517026901245117</v>
+        <v>0.01283197402954101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01539134979248047</v>
+        <v>0.01043562889099121</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00366363525390625</v>
+        <v>0.01046676635742188</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06216011047363281</v>
+        <v>0.08207383155822753</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009285259246826171</v>
+        <v>0.008400058746337891</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02718038558959961</v>
+        <v>0.02034802436828613</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01134395599365234</v>
+        <v>0.01489152908325195</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01680665016174316</v>
+        <v>0.01723241806030273</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0165278434753418</v>
+        <v>0.0124995231628418</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03703403472900391</v>
+        <v>0.03416523933410644</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006600427627563477</v>
+        <v>0.006871843338012695</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0191474437713623</v>
+        <v>0.01709966659545898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01380510330200195</v>
+        <v>0.01573925018310547</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0155123233795166</v>
+        <v>0.01494297981262207</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01106185913085938</v>
+        <v>0.01405134201049805</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01542587280273438</v>
+        <v>0.01505398750305176</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01747221946716309</v>
+        <v>0.01183586120605469</v>
       </c>
       <c r="J5" t="n">
-        <v>0.013922119140625</v>
+        <v>0.009855222702026368</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009642696380615235</v>
+        <v>0.01453518867492676</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -670,44 +670,87 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4757477283477783</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02020163536071777</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.395454740524292</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01656913757324219</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8692080497741699</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0202143669128418</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.239093542098999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0164334774017334</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4434679985046387</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0183751106262207</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3708630561828613</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01582779884338379</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>Ensemble</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.3828513622283936</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06287045478820801</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2550122261047363</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.04659237861633301</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1097476005554199</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01874260902404785</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.3801012992858886</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0534945011138916</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.2442757129669189</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.04940900802612305</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1176186561584473</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.01742396354675293</v>
+      <c r="B7" t="n">
+        <v>0.5574260711669922</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.06136651039123535</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.275451135635376</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03563728332519531</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6735668182373047</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03507504463195801</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9228752136230469</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.09766650199890137</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3353415966033936</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04235577583312988</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5968525409698486</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.03218626976013184</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01579561233520508</v>
+        <v>0.02453427314758301</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02395977973937988</v>
+        <v>0.04562606811523438</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009798669815063476</v>
+        <v>0.01350531578063965</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01614923477172852</v>
+        <v>0.03302760124206543</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.008483648300170898</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06241722106933593</v>
+        <v>0.09333915710449218</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01784634590148926</v>
+        <v>0.02755804061889649</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0213188648223877</v>
+        <v>0.03097348213195801</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006253767013549805</v>
+        <v>0.0206578254699707</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02848620414733887</v>
+        <v>0.02799925804138183</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004152059555053711</v>
+        <v>0.003416252136230469</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0256159782409668</v>
+        <v>0.02531528472900391</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0847860336303711</v>
+        <v>0.1226459980010986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0280029296875</v>
+        <v>0.04267120361328125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01257224082946777</v>
+        <v>0.01536340713500977</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0115849494934082</v>
+        <v>0.01508159637451172</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003669643402099609</v>
+        <v>0.0113978385925293</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01166410446166992</v>
+        <v>0.007460880279541016</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09928703308105469</v>
+        <v>0.1285584926605225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03016805648803711</v>
+        <v>0.04587903022766113</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06685857772827149</v>
+        <v>0.08203740119934082</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02468986511230469</v>
+        <v>0.02377519607543945</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02614903450012207</v>
+        <v>0.02572412490844727</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005408763885498047</v>
+        <v>0.01503868103027344</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02529869079589844</v>
+        <v>0.04863910675048828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01283197402954101</v>
+        <v>0.02747330665588379</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01043562889099121</v>
+        <v>0.0225034236907959</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01046676635742188</v>
+        <v>0.01230783462524414</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08207383155822753</v>
+        <v>0.1012078762054443</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008400058746337891</v>
+        <v>0.01251845359802246</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02034802436828613</v>
+        <v>0.02721915245056152</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01489152908325195</v>
+        <v>0.0156346321105957</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01723241806030273</v>
+        <v>0.02772345542907715</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0124995231628418</v>
+        <v>0.02142224311828613</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03416523933410644</v>
+        <v>0.04239592552185058</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006871843338012695</v>
+        <v>0.009864234924316406</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01709966659545898</v>
+        <v>0.03178791999816895</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01573925018310547</v>
+        <v>0.02495737075805664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01494297981262207</v>
+        <v>0.03640303611755371</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01405134201049805</v>
+        <v>0.03060135841369629</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01505398750305176</v>
+        <v>0.02167863845825195</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01183586120605469</v>
+        <v>0.03239674568176269</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009855222702026368</v>
+        <v>0.02532310485839844</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01453518867492676</v>
+        <v>0.03071327209472656</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4757477283477783</v>
+        <v>0.6837720394134521</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02020163536071777</v>
+        <v>0.03015332221984863</v>
       </c>
       <c r="D6" t="n">
-        <v>0.395454740524292</v>
+        <v>0.6274021625518799</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01656913757324219</v>
+        <v>0.04070558547973633</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8692080497741699</v>
+        <v>1.200747680664062</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0202143669128418</v>
+        <v>0.02355718612670898</v>
       </c>
       <c r="H6" t="n">
-        <v>0.239093542098999</v>
+        <v>0.3341116428375244</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0164334774017334</v>
+        <v>0.02347135543823242</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4434679985046387</v>
+        <v>0.5930277824401855</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0183751106262207</v>
+        <v>0.02374272346496582</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3708630561828613</v>
+        <v>0.4998091697692871</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01582779884338379</v>
+        <v>0.01894192695617676</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5574260711669922</v>
+        <v>0.8560727596282959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06136651039123535</v>
+        <v>0.1082107067108154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275451135635376</v>
+        <v>0.4238080024719239</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03563728332519531</v>
+        <v>0.05590958595275879</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6735668182373047</v>
+        <v>0.5734320640563965</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03507504463195801</v>
+        <v>0.02772893905639649</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9228752136230469</v>
+        <v>0.9348299980163575</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09766650199890137</v>
+        <v>0.1075291156768799</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3353415966033936</v>
+        <v>0.3289021015167236</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04235577583312988</v>
+        <v>0.04420270919799805</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5968525409698486</v>
+        <v>0.6750794887542725</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03218626976013184</v>
+        <v>0.02424759864807129</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02453427314758301</v>
+        <v>0.0374241828918457</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04562606811523438</v>
+        <v>0.05635991096496582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01350531578063965</v>
+        <v>0.01432099342346191</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03302760124206543</v>
+        <v>0.0374549388885498</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008483648300170898</v>
+        <v>0.01039361953735352</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09333915710449218</v>
+        <v>0.1382022857666016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02755804061889649</v>
+        <v>0.04408912658691407</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03097348213195801</v>
+        <v>0.07538542747497559</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0206578254699707</v>
+        <v>0.02771964073181152</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02799925804138183</v>
+        <v>0.06352519989013672</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003416252136230469</v>
+        <v>0.01035785675048828</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02531528472900391</v>
+        <v>0.07379536628723145</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1226459980010986</v>
+        <v>0.2319737911224365</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04267120361328125</v>
+        <v>0.08908252716064453</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01536340713500977</v>
+        <v>0.03519744873046875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01508159637451172</v>
+        <v>0.01848273277282715</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0113978385925293</v>
+        <v>0.01509771347045898</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007460880279541016</v>
+        <v>0.01677374839782715</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1285584926605225</v>
+        <v>0.2128887176513672</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04587903022766113</v>
+        <v>0.06731266975402832</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08203740119934082</v>
+        <v>0.1457373142242432</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02377519607543945</v>
+        <v>0.04217424392700195</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02572412490844727</v>
+        <v>0.04871301651000977</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01503868103027344</v>
+        <v>0.02279915809631348</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04863910675048828</v>
+        <v>0.05716004371643067</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02747330665588379</v>
+        <v>0.02171125411987305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0225034236907959</v>
+        <v>0.03658490180969239</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01230783462524414</v>
+        <v>0.04089937210083008</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1012078762054443</v>
+        <v>0.2064003467559815</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01251845359802246</v>
+        <v>0.02874436378479004</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02721915245056152</v>
+        <v>0.05865049362182617</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0156346321105957</v>
+        <v>0.06721343994140624</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02772345542907715</v>
+        <v>0.04904403686523438</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02142224311828613</v>
+        <v>0.06456432342529297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04239592552185058</v>
+        <v>0.07051692008972169</v>
       </c>
       <c r="M4" t="n">
-        <v>0.009864234924316406</v>
+        <v>0.02154617309570312</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03178791999816895</v>
+        <v>0.0354374885559082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02495737075805664</v>
+        <v>0.03339834213256836</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03640303611755371</v>
+        <v>0.03480215072631836</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03060135841369629</v>
+        <v>0.0316965103149414</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02167863845825195</v>
+        <v>0.03844742774963379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03239674568176269</v>
+        <v>0.03392887115478516</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02532310485839844</v>
+        <v>0.02048883438110351</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03071327209472656</v>
+        <v>0.03802752494812012</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6837720394134521</v>
+        <v>0.9877229690551758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03015332221984863</v>
+        <v>0.04915952682495117</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6274021625518799</v>
+        <v>0.9749974727630615</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04070558547973633</v>
+        <v>0.04991369247436524</v>
       </c>
       <c r="F6" t="n">
-        <v>1.200747680664062</v>
+        <v>2.18835391998291</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02355718612670898</v>
+        <v>0.04042840003967285</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3341116428375244</v>
+        <v>0.5025713443756104</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02347135543823242</v>
+        <v>0.03336911201477051</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5930277824401855</v>
+        <v>1.012448644638062</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02374272346496582</v>
+        <v>0.03944311141967773</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4998091697692871</v>
+        <v>0.7677135467529297</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01894192695617676</v>
+        <v>0.02432136535644531</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8560727596282959</v>
+        <v>1.032159948348999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1082107067108154</v>
+        <v>0.1392716884613037</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4238080024719239</v>
+        <v>0.5096531867980957</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05590958595275879</v>
+        <v>0.06172366142272949</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5734320640563965</v>
+        <v>0.7097468376159668</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02772893905639649</v>
+        <v>0.03217315673828125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9348299980163575</v>
+        <v>1.149969005584717</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1075291156768799</v>
+        <v>0.1227193355560303</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3289021015167236</v>
+        <v>0.5003772735595703</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04420270919799805</v>
+        <v>0.07103452682495118</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6750794887542725</v>
+        <v>0.7030947208404541</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02424759864807129</v>
+        <v>0.03682327270507812</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0374241828918457</v>
+        <v>0.01368308067321777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05635991096496582</v>
+        <v>0.02483744621276856</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01432099342346191</v>
+        <v>0.003437042236328125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0374549388885498</v>
+        <v>0.01657395362854004</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01039361953735352</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1382022857666016</v>
+        <v>0.05996384620666504</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04408912658691407</v>
+        <v>0.02000150680541992</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07538542747497559</v>
+        <v>0.02145295143127441</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02771964073181152</v>
+        <v>0.01535792350769043</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06352519989013672</v>
+        <v>0.02404146194458008</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01035785675048828</v>
+        <v>0.003359413146972656</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07379536628723145</v>
+        <v>0.01656999588012695</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2319737911224365</v>
+        <v>0.1307877540588379</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08908252716064453</v>
+        <v>0.04869184494018555</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03519744873046875</v>
+        <v>0.02769923210144043</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01848273277282715</v>
+        <v>0.01864128112792969</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01509771347045898</v>
+        <v>0.008669757843017578</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01677374839782715</v>
+        <v>0.01287837028503418</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2128887176513672</v>
+        <v>0.1359569072723389</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06731266975402832</v>
+        <v>0.0372157096862793</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1457373142242432</v>
+        <v>0.1070014953613281</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04217424392700195</v>
+        <v>0.03587250709533692</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04871301651000977</v>
+        <v>0.03759307861328125</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02279915809631348</v>
+        <v>0.01731629371643066</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05716004371643067</v>
+        <v>0.05874981880187988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02171125411987305</v>
+        <v>0.02714376449584961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03658490180969239</v>
+        <v>0.03059911727905273</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04089937210083008</v>
+        <v>0.01584486961364746</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2064003467559815</v>
+        <v>0.09232025146484375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02874436378479004</v>
+        <v>0.01421313285827637</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05865049362182617</v>
+        <v>0.0430945873260498</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06721343994140624</v>
+        <v>0.03295221328735352</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04904403686523438</v>
+        <v>0.03149204254150391</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06456432342529297</v>
+        <v>0.0277310848236084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07051692008972169</v>
+        <v>0.06775507926940919</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02154617309570312</v>
+        <v>0.01273941993713379</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0354374885559082</v>
+        <v>0.0382883071899414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03339834213256836</v>
+        <v>0.03574857711791992</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03480215072631836</v>
+        <v>0.03637590408325195</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0316965103149414</v>
+        <v>0.03173689842224121</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03844742774963379</v>
+        <v>0.02858166694641113</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03392887115478516</v>
+        <v>0.03210873603820801</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02048883438110351</v>
+        <v>0.01864619255065918</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03802752494812012</v>
+        <v>0.02571640014648437</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9877229690551758</v>
+        <v>0.6467616558074951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04915952682495117</v>
+        <v>0.0276768684387207</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9749974727630615</v>
+        <v>0.6240752696990967</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04991369247436524</v>
+        <v>0.03111162185668945</v>
       </c>
       <c r="F6" t="n">
-        <v>2.18835391998291</v>
+        <v>1.294736576080322</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04042840003967285</v>
+        <v>0.02487802505493164</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5025713443756104</v>
+        <v>0.3938920497894287</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03336911201477051</v>
+        <v>0.0213068962097168</v>
       </c>
       <c r="J6" t="n">
-        <v>1.012448644638062</v>
+        <v>0.6603969097137451</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03944311141967773</v>
+        <v>0.0349393367767334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7677135467529297</v>
+        <v>0.5810380935668945</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02432136535644531</v>
+        <v>0.01997919082641602</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.032159948348999</v>
+        <v>0.9033839225769043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1392716884613037</v>
+        <v>0.1154187202453613</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5096531867980957</v>
+        <v>0.4600280284881592</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06172366142272949</v>
+        <v>0.0659097671508789</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7097468376159668</v>
+        <v>0.6085456371307373</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03217315673828125</v>
+        <v>0.02822628021240235</v>
       </c>
       <c r="H7" t="n">
-        <v>1.149969005584717</v>
+        <v>0.9345259189605712</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1227193355560303</v>
+        <v>0.1059933662414551</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5003772735595703</v>
+        <v>0.3508360385894775</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07103452682495118</v>
+        <v>0.05184469223022461</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7030947208404541</v>
+        <v>0.7216342926025391</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03682327270507812</v>
+        <v>0.03750615119934082</v>
       </c>
     </row>
   </sheetData>
